--- a/распределение.xlsx
+++ b/распределение.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="реальность" sheetId="2" r:id="rId1"/>
+    <sheet name="ожидание" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>1d6</t>
   </si>
@@ -134,27 +135,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:f>реальность!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>20.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -169,11 +170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160468992"/>
-        <c:axId val="185279616"/>
+        <c:axId val="153987072"/>
+        <c:axId val="33968064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160468992"/>
+        <c:axId val="153987072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -182,7 +183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185279616"/>
+        <c:crossAx val="33968064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -190,7 +191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185279616"/>
+        <c:axId val="33968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,7 +202,481 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160468992"/>
+        <c:crossAx val="153987072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ожидание!$B$67:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164545024"/>
+        <c:axId val="208593472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164545024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208593472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208593472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164545024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ожидание!$B$88:$U$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164545536"/>
+        <c:axId val="208595200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164545536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208595200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208595200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164545536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ожидание!$B$110:$AE$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164546048"/>
+        <c:axId val="208596928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164546048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208596928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208596928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164546048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -245,7 +720,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$25:$L$25</c:f>
+              <c:f>реальность!$A$26:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -253,37 +728,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5555555555555554</c:v>
+                  <c:v>7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333321</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.111111111111111</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.888888888888889</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>19.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.888888888888889</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.111111111111111</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3333333333333321</c:v>
+                  <c:v>7.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5555555555555554</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -298,11 +773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159544320"/>
-        <c:axId val="185282496"/>
+        <c:axId val="151612928"/>
+        <c:axId val="212535552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159544320"/>
+        <c:axId val="151612928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185282496"/>
+        <c:crossAx val="212535552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -319,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185282496"/>
+        <c:axId val="212535552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -330,7 +805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159544320"/>
+        <c:crossAx val="151612928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -374,7 +849,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$47:$R$47</c:f>
+              <c:f>реальность!$A$48:$R$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -385,52 +860,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46296296296296291</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3888888888888888</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6296296296296298</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9444444444444446</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7222222222222214</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.574074074074073</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.5</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.574074074074073</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7222222222222214</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9444444444444446</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6296296296296298</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3888888888888888</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46296296296296291</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,11 +920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159545344"/>
-        <c:axId val="185284800"/>
+        <c:axId val="159973376"/>
+        <c:axId val="212539008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159545344"/>
+        <c:axId val="159973376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185284800"/>
+        <c:crossAx val="212539008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -466,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185284800"/>
+        <c:axId val="212539008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159545344"/>
+        <c:crossAx val="159973376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -526,39 +1001,99 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$67:$K$67</c:f>
+              <c:f>реальность!$B$114:$AE$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,11 +1108,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159470592"/>
-        <c:axId val="160889600"/>
+        <c:axId val="159973888"/>
+        <c:axId val="150846784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159470592"/>
+        <c:axId val="159973888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +1121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160889600"/>
+        <c:crossAx val="150846784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,7 +1129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160889600"/>
+        <c:axId val="150846784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +1140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159470592"/>
+        <c:crossAx val="159973888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -654,7 +1189,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$88:$U$88</c:f>
+              <c:f>реальность!$B$92:$U$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -665,58 +1200,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.7999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.0000000000000009</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159470080"/>
-        <c:axId val="213119488"/>
+        <c:axId val="159975424"/>
+        <c:axId val="209235328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159470080"/>
+        <c:axId val="159975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +1279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213119488"/>
+        <c:crossAx val="209235328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -752,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213119488"/>
+        <c:axId val="209235328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159470080"/>
+        <c:crossAx val="159975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,99 +1347,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$110:$AE$110</c:f>
+              <c:f>реальность!$B$70:$K$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8000000000000003</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,11 +1394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159469568"/>
-        <c:axId val="293904960"/>
+        <c:axId val="154152960"/>
+        <c:axId val="209238784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159469568"/>
+        <c:axId val="154152960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293904960"/>
+        <c:crossAx val="209238784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293904960"/>
+        <c:axId val="209238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +1426,394 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159469568"/>
+        <c:crossAx val="154152960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ожидание!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164530176"/>
+        <c:axId val="160756224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164530176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160756224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160756224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164530176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ожидание!$A$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164531712"/>
+        <c:axId val="131609664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164531712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131609664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131609664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164531712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ожидание!$A$47:$R$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46296296296296291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6296296296296298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.574074074074073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.574074074074073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6296296296296298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46296296296296291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164544512"/>
+        <c:axId val="131611392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164544512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131611392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131611392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164544512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,6 +1831,191 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1440,10 +2487,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3/500*100</f>
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:G4" si="0">C3/500*100</f>
+        <v>20.599999999999998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B4:G4)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <v>83</v>
+      </c>
+      <c r="G25">
+        <v>97</v>
+      </c>
+      <c r="H25">
+        <v>61</v>
+      </c>
+      <c r="I25">
+        <v>53</v>
+      </c>
+      <c r="J25">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25/500*100</f>
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:L26" si="1">B25/500*100</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>19.400000000000002</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>12.2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="N26">
+        <f>SUM(A26:L26)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>14</v>
+      </c>
+      <c r="O46">
+        <v>15</v>
+      </c>
+      <c r="P46">
+        <v>16</v>
+      </c>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+      <c r="R46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>26</v>
+      </c>
+      <c r="F47">
+        <v>43</v>
+      </c>
+      <c r="G47">
+        <v>63</v>
+      </c>
+      <c r="H47">
+        <v>94</v>
+      </c>
+      <c r="I47">
+        <v>120</v>
+      </c>
+      <c r="J47">
+        <v>115</v>
+      </c>
+      <c r="K47">
+        <v>144</v>
+      </c>
+      <c r="L47">
+        <v>126</v>
+      </c>
+      <c r="M47">
+        <v>87</v>
+      </c>
+      <c r="N47">
+        <v>57</v>
+      </c>
+      <c r="O47">
+        <v>56</v>
+      </c>
+      <c r="P47">
+        <v>33</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>A47*100/1000</f>
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:R48" si="2">B47*100/1000</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="T48">
+        <f>SUM(A48:R48)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <v>49</v>
+      </c>
+      <c r="E69">
+        <v>51</v>
+      </c>
+      <c r="F69">
+        <v>49</v>
+      </c>
+      <c r="G69">
+        <v>45</v>
+      </c>
+      <c r="H69">
+        <v>43</v>
+      </c>
+      <c r="I69">
+        <v>51</v>
+      </c>
+      <c r="J69">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>61</v>
+      </c>
+      <c r="N69">
+        <f>SUM(B69:K69)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>B69/500*100</f>
+        <v>8.4</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:K70" si="3">C69/500*100</f>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>10</v>
+      </c>
+      <c r="L90">
+        <v>11</v>
+      </c>
+      <c r="M90">
+        <v>12</v>
+      </c>
+      <c r="N90">
+        <v>13</v>
+      </c>
+      <c r="O90">
+        <v>14</v>
+      </c>
+      <c r="P90">
+        <v>15</v>
+      </c>
+      <c r="Q90">
+        <v>16</v>
+      </c>
+      <c r="R90">
+        <v>17</v>
+      </c>
+      <c r="S90">
+        <v>18</v>
+      </c>
+      <c r="T90">
+        <v>19</v>
+      </c>
+      <c r="U90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91">
+        <v>27</v>
+      </c>
+      <c r="H91">
+        <v>25</v>
+      </c>
+      <c r="I91">
+        <v>32</v>
+      </c>
+      <c r="J91">
+        <v>47</v>
+      </c>
+      <c r="K91">
+        <v>55</v>
+      </c>
+      <c r="L91">
+        <v>48</v>
+      </c>
+      <c r="M91">
+        <v>39</v>
+      </c>
+      <c r="N91">
+        <v>44</v>
+      </c>
+      <c r="O91">
+        <v>25</v>
+      </c>
+      <c r="P91">
+        <v>29</v>
+      </c>
+      <c r="Q91">
+        <v>35</v>
+      </c>
+      <c r="R91">
+        <v>16</v>
+      </c>
+      <c r="S91">
+        <v>21</v>
+      </c>
+      <c r="T91">
+        <v>7</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f>B91/500*100</f>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ref="C92:U92" si="4">C91/500*100</f>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>5.4</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="4"/>
+        <v>9.4</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
+        <v>9.6</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="4"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="W92">
+        <f>SUM(C92:U92)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+      <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+      <c r="J112">
+        <v>9</v>
+      </c>
+      <c r="K112">
+        <v>10</v>
+      </c>
+      <c r="L112">
+        <v>11</v>
+      </c>
+      <c r="M112">
+        <v>12</v>
+      </c>
+      <c r="N112">
+        <v>13</v>
+      </c>
+      <c r="O112">
+        <v>14</v>
+      </c>
+      <c r="P112">
+        <v>15</v>
+      </c>
+      <c r="Q112">
+        <v>16</v>
+      </c>
+      <c r="R112">
+        <v>17</v>
+      </c>
+      <c r="S112">
+        <v>18</v>
+      </c>
+      <c r="T112">
+        <v>19</v>
+      </c>
+      <c r="U112">
+        <v>20</v>
+      </c>
+      <c r="V112">
+        <v>21</v>
+      </c>
+      <c r="W112">
+        <v>22</v>
+      </c>
+      <c r="X112">
+        <v>23</v>
+      </c>
+      <c r="Y112">
+        <v>24</v>
+      </c>
+      <c r="Z112">
+        <v>25</v>
+      </c>
+      <c r="AA112">
+        <v>26</v>
+      </c>
+      <c r="AB112">
+        <v>27</v>
+      </c>
+      <c r="AC112">
+        <v>28</v>
+      </c>
+      <c r="AD112">
+        <v>29</v>
+      </c>
+      <c r="AE112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113">
+        <v>9</v>
+      </c>
+      <c r="H113">
+        <v>11</v>
+      </c>
+      <c r="I113">
+        <v>29</v>
+      </c>
+      <c r="J113">
+        <v>38</v>
+      </c>
+      <c r="K113">
+        <v>34</v>
+      </c>
+      <c r="L113">
+        <v>52</v>
+      </c>
+      <c r="M113">
+        <v>57</v>
+      </c>
+      <c r="N113">
+        <v>50</v>
+      </c>
+      <c r="O113">
+        <v>70</v>
+      </c>
+      <c r="P113">
+        <v>66</v>
+      </c>
+      <c r="Q113">
+        <v>67</v>
+      </c>
+      <c r="R113">
+        <v>71</v>
+      </c>
+      <c r="S113">
+        <v>66</v>
+      </c>
+      <c r="T113">
+        <v>58</v>
+      </c>
+      <c r="U113">
+        <v>66</v>
+      </c>
+      <c r="V113">
+        <v>69</v>
+      </c>
+      <c r="W113">
+        <v>50</v>
+      </c>
+      <c r="X113">
+        <v>30</v>
+      </c>
+      <c r="Y113">
+        <v>20</v>
+      </c>
+      <c r="Z113">
+        <v>25</v>
+      </c>
+      <c r="AA113">
+        <v>11</v>
+      </c>
+      <c r="AB113">
+        <v>15</v>
+      </c>
+      <c r="AC113">
+        <v>9</v>
+      </c>
+      <c r="AD113">
+        <v>3</v>
+      </c>
+      <c r="AE113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f>B113*100/1000</f>
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ref="B114:C114" si="5">C113*100/1000</f>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <f>D113*100/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114" si="6">E113*100/1000</f>
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ref="F114:G114" si="7">F113*100/1000</f>
+        <v>1.2</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ref="H114" si="8">H113*100/1000</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ref="I114:J114" si="9">I113*100/1000</f>
+        <v>2.9</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="K114">
+        <f t="shared" ref="K114" si="10">K113*100/1000</f>
+        <v>3.4</v>
+      </c>
+      <c r="L114">
+        <f t="shared" ref="L114:M114" si="11">L113*100/1000</f>
+        <v>5.2</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>5.7</v>
+      </c>
+      <c r="N114">
+        <f t="shared" ref="N114" si="12">N113*100/1000</f>
+        <v>5</v>
+      </c>
+      <c r="O114">
+        <f t="shared" ref="O114:P114" si="13">O113*100/1000</f>
+        <v>7</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="13"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" ref="Q114" si="14">Q113*100/1000</f>
+        <v>6.7</v>
+      </c>
+      <c r="R114">
+        <f t="shared" ref="R114:S114" si="15">R113*100/1000</f>
+        <v>7.1</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="15"/>
+        <v>6.6</v>
+      </c>
+      <c r="T114">
+        <f t="shared" ref="T114" si="16">T113*100/1000</f>
+        <v>5.8</v>
+      </c>
+      <c r="U114">
+        <f t="shared" ref="U114:V114" si="17">U113*100/1000</f>
+        <v>6.6</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="17"/>
+        <v>6.9</v>
+      </c>
+      <c r="W114">
+        <f t="shared" ref="W114" si="18">W113*100/1000</f>
+        <v>5</v>
+      </c>
+      <c r="X114">
+        <f t="shared" ref="X114:Y114" si="19">X113*100/1000</f>
+        <v>3</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" ref="Z114" si="20">Z113*100/1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" ref="AA114:AB114" si="21">AA113*100/1000</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC114">
+        <f t="shared" ref="AC114" si="22">AC113*100/1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="AD114">
+        <f t="shared" ref="AD114:AE114" si="23">AD113*100/1000</f>
+        <v>0.3</v>
+      </c>
+      <c r="AE114">
+        <f t="shared" si="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG114">
+        <f>SUM(B114:AE114)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y127" sqref="Y127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,51 +3711,51 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>$I$21*A24*100</f>
+        <f t="shared" ref="A25:L25" si="1">$I$21*A24*100</f>
         <v>0</v>
       </c>
       <c r="B25">
-        <f>$I$21*B24*100</f>
+        <f t="shared" si="1"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="C25">
-        <f>$I$21*C24*100</f>
+        <f t="shared" si="1"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="D25">
-        <f>$I$21*D24*100</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="E25">
-        <f>$I$21*E24*100</f>
+        <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F25">
-        <f>$I$21*F24*100</f>
+        <f t="shared" si="1"/>
         <v>13.888888888888889</v>
       </c>
       <c r="G25">
-        <f>$I$21*G24*100</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
       <c r="H25">
-        <f>$I$21*H24*100</f>
+        <f t="shared" si="1"/>
         <v>13.888888888888889</v>
       </c>
       <c r="I25">
-        <f>$I$21*I24*100</f>
+        <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
       <c r="J25">
-        <f>$I$21*J24*100</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="K25">
-        <f>$I$21*K24*100</f>
+        <f t="shared" si="1"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="L25">
-        <f>$I$21*L24*100</f>
+        <f t="shared" si="1"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="N25">
@@ -1769,75 +3886,75 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>$I$43*A46*100</f>
+        <f t="shared" ref="A47:R47" si="2">$I$43*A46*100</f>
         <v>0</v>
       </c>
       <c r="B47">
-        <f>$I$43*B46*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C47">
-        <f>$I$43*C46*100</f>
+        <f t="shared" si="2"/>
         <v>0.46296296296296291</v>
       </c>
       <c r="D47">
-        <f>$I$43*D46*100</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="E47">
-        <f>$I$43*E46*100</f>
+        <f t="shared" si="2"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="F47">
-        <f>$I$43*F46*100</f>
+        <f t="shared" si="2"/>
         <v>4.6296296296296298</v>
       </c>
       <c r="G47">
-        <f>$I$43*G46*100</f>
+        <f t="shared" si="2"/>
         <v>6.9444444444444446</v>
       </c>
       <c r="H47">
-        <f>$I$43*H46*100</f>
+        <f t="shared" si="2"/>
         <v>9.7222222222222214</v>
       </c>
       <c r="I47">
-        <f>$I$43*I46*100</f>
+        <f t="shared" si="2"/>
         <v>11.574074074074073</v>
       </c>
       <c r="J47">
-        <f>$I$43*J46*100</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="K47">
-        <f>$I$43*K46*100</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="L47">
-        <f>$I$43*L46*100</f>
+        <f t="shared" si="2"/>
         <v>11.574074074074073</v>
       </c>
       <c r="M47">
-        <f>$I$43*M46*100</f>
+        <f t="shared" si="2"/>
         <v>9.7222222222222214</v>
       </c>
       <c r="N47">
-        <f>$I$43*N46*100</f>
+        <f t="shared" si="2"/>
         <v>6.9444444444444446</v>
       </c>
       <c r="O47">
-        <f>$I$43*O46*100</f>
+        <f t="shared" si="2"/>
         <v>4.6296296296296298</v>
       </c>
       <c r="P47">
-        <f>$I$43*P46*100</f>
+        <f t="shared" si="2"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="Q47">
-        <f>$I$43*Q46*100</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="R47">
-        <f>$I$43*R46*100</f>
+        <f t="shared" si="2"/>
         <v>0.46296296296296291</v>
       </c>
       <c r="T47">
@@ -1892,39 +4009,39 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:K67" si="1">100*$I$65</f>
+        <f t="shared" ref="C67:K67" si="3">100*$I$65</f>
         <v>10</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N67">
@@ -2075,75 +4192,75 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88:U88" si="2">$I$84*D87*100</f>
+        <f t="shared" ref="D88:U88" si="4">$I$84*D87*100</f>
         <v>2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="J88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="L88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="P88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="T88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W88">
@@ -2360,119 +4477,119 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:AE110" si="3">$I$106*C109*100</f>
+        <f t="shared" ref="C110:AE110" si="5">$I$106*C109*100</f>
         <v>0</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="J110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="K110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="L110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="M110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
       <c r="O110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.9</v>
       </c>
       <c r="P110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="R110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="S110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3</v>
       </c>
       <c r="T110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.9</v>
       </c>
       <c r="U110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
       <c r="V110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="W110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="X110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="Y110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="Z110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="AB110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AC110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="AD110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="AE110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="AG110">
